--- a/tables/DE/exp3/DE_table2_F7_dim10.xlsx
+++ b/tables/DE/exp3/DE_table2_F7_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>297.69361656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>241.70282635</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>255.1069152</v>
+        <v>255.37499698</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>202.47199566</v>
@@ -1011,15 +1002,12 @@
         <v>286.46201868</v>
       </c>
       <c r="AZ3" t="n">
-        <v>241.70282635</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>186.42507161</v>
+        <v>185.31951652</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>25.10961121</v>
@@ -1172,15 +1160,12 @@
         <v>11.82371145</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9.79179667</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>17.31136695</v>
+        <v>17.46175836</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>0.29622649</v>
@@ -1333,15 +1318,12 @@
         <v>0.30071847</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.19913174</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.29705387</v>
+        <v>0.29901232</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>0.12725497</v>
@@ -1494,15 +1476,12 @@
         <v>0.1732006</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.08375007</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.14500427</v>
+        <v>0.14622935</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>0.06558569</v>
@@ -1655,15 +1634,12 @@
         <v>0.12215591</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.06155165</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.09563943</v>
+        <v>0.09632119</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>0.03959321</v>
@@ -1816,15 +1792,12 @@
         <v>0.06993464000000001</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.02518319</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.0710833</v>
+        <v>0.0720013</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>0.01557699</v>
@@ -1977,15 +1950,12 @@
         <v>0.06544452000000001</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.02448243</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.05691024</v>
+        <v>0.05755879</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>0.01549434</v>
@@ -2138,15 +2108,12 @@
         <v>0.06444902</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01665068</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.04566935</v>
+        <v>0.04624972</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>0.01440196</v>
@@ -2299,15 +2266,12 @@
         <v>0.03956653</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0164483</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.03788028</v>
+        <v>0.03830892</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>0.01124603</v>
@@ -2460,15 +2424,12 @@
         <v>0.03851693</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01276714</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.03393808</v>
+        <v>0.0343615</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.01046234</v>
@@ -2621,15 +2582,12 @@
         <v>0.03561199</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01224791</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.02950626</v>
+        <v>0.02985142</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.01003825</v>
@@ -2782,10 +2740,7 @@
         <v>0.01948392</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.00377916</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.02556871</v>
+        <v>0.0260045</v>
       </c>
     </row>
   </sheetData>
